--- a/RUDN/Importance/Varible_muatal_reg_in_Central Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Central Asia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
@@ -34,30 +34,30 @@
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Male population 80+</t>
   </si>
   <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
@@ -67,57 +67,57 @@
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
@@ -133,18 +133,18 @@
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
@@ -154,90 +154,93 @@
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
+    <t>Male population 10-14</t>
   </si>
   <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
@@ -262,9 +265,6 @@
     <t>Male population 50-54</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
@@ -385,6 +385,9 @@
     <t>Female population 55-59</t>
   </si>
   <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
@@ -397,9 +400,6 @@
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>Male population 75-79</t>
   </si>
   <si>
@@ -436,15 +436,15 @@
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
     <t>Population, total</t>
   </si>
   <si>
@@ -454,12 +454,12 @@
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
@@ -469,72 +469,72 @@
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
@@ -592,15 +592,15 @@
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
@@ -655,18 +655,18 @@
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
@@ -676,12 +676,12 @@
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 0-14, male</t>
   </si>
   <si>
@@ -700,18 +700,21 @@
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>Female population 65-69</t>
   </si>
   <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
@@ -727,81 +730,78 @@
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
   </si>
   <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
@@ -811,75 +811,75 @@
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
     <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
     <t>Female population 75-79</t>
   </si>
   <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% net)</t>
+    <t>School enrollment, primary (% net)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
     <t>Female population 40-44</t>
   </si>
   <si>
@@ -916,36 +916,36 @@
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
@@ -976,144 +976,144 @@
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
     <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
@@ -1132,13 +1132,10 @@
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+    <t>Reion_sub_code</t>
   </si>
   <si>
     <t>Region_code</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B376"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.322422179306447</v>
+        <v>1.328832435716704</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1536,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9129163130954756</v>
+        <v>0.9080017831809457</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1552,7 +1549,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8700993115392901</v>
+        <v>0.8614894573412006</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1560,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8315272777386169</v>
+        <v>0.8464566000238578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1568,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8273157071950334</v>
+        <v>0.8318281116821342</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1576,7 +1573,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8242063836641811</v>
+        <v>0.8315272777386169</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1584,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8142758034331781</v>
+        <v>0.8242063836641811</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1592,7 +1589,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.80865022904441</v>
+        <v>0.8073530854693458</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1608,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7511648608145318</v>
+        <v>0.7507974920232416</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1616,7 +1613,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7507974920232416</v>
+        <v>0.7453929884561212</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1632,7 +1629,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7265962669081363</v>
+        <v>0.7309231899850599</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1648,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7144908419521818</v>
+        <v>0.719282444580323</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1656,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7101020416499204</v>
+        <v>0.710229433954765</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1664,7 +1661,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7084272831141525</v>
+        <v>0.7074821812075123</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1672,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7079400566653882</v>
+        <v>0.7065689027802424</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1680,7 +1677,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7074821812075123</v>
+        <v>0.7032761842130539</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1688,7 +1685,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6927244666381562</v>
+        <v>0.6913061453906395</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1696,7 +1693,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6913061453906395</v>
+        <v>0.6888851363832411</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1712,7 +1709,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6863744526225575</v>
+        <v>0.6863142102278998</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1728,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6639019297034048</v>
+        <v>0.6571405407953197</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1736,7 +1733,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.6571405407953197</v>
+        <v>0.649730186403418</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1744,7 +1741,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.649730186403418</v>
+        <v>0.647338632304808</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1752,7 +1749,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.647338632304808</v>
+        <v>0.6455072808739735</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1768,7 +1765,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6390805397996493</v>
+        <v>0.6441960802706941</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1776,7 +1773,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6365037725783864</v>
+        <v>0.6390805397996493</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1824,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6161565854712923</v>
+        <v>0.6138929182155968</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1832,7 +1829,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6138929182155968</v>
+        <v>0.612702513916533</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1840,7 +1837,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.612702513916533</v>
+        <v>0.612590285907936</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1848,7 +1845,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.612590285907936</v>
+        <v>0.6124783192930254</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1872,7 +1869,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6087267657284878</v>
+        <v>0.6075066090735486</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1880,7 +1877,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6074096845365755</v>
+        <v>0.6063626920365524</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1888,7 +1885,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6063626920365524</v>
+        <v>0.6020480373527151</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1896,7 +1893,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6020480373527151</v>
+        <v>0.6016812536893066</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1904,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6016812536893066</v>
+        <v>0.5989267164848315</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1912,7 +1909,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5989267164848315</v>
+        <v>0.5979811748344832</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1920,7 +1917,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5979811748344832</v>
+        <v>0.5966464458957441</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1928,7 +1925,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5966464458957441</v>
+        <v>0.5944038246820558</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1936,7 +1933,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5944038246820558</v>
+        <v>0.5943977690093489</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1944,7 +1941,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5943977690093489</v>
+        <v>0.5938724096464756</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1952,7 +1949,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5938724096464756</v>
+        <v>0.5924333123187799</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1960,7 +1957,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5924333123187799</v>
+        <v>0.5919629137819942</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1968,7 +1965,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5919629137819942</v>
+        <v>0.5914888704909114</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1976,7 +1973,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5914888704909114</v>
+        <v>0.5907725393938665</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1984,7 +1981,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5907725393938665</v>
+        <v>0.5883637349716238</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1992,7 +1989,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5883637349716238</v>
+        <v>0.5879399555849698</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2000,7 +1997,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5855436594840717</v>
+        <v>0.5853529186244408</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2008,7 +2005,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.585536109431124</v>
+        <v>0.58410902054456</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2016,7 +2013,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5853529186244408</v>
+        <v>0.582610940757291</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2024,7 +2021,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5841320417882261</v>
+        <v>0.5823159025359541</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2032,7 +2029,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.58410902054456</v>
+        <v>0.5819225266073382</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2040,7 +2037,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.582610940757291</v>
+        <v>0.5813847890409733</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2048,7 +2045,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5823159025359541</v>
+        <v>0.5807004960123656</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2056,7 +2053,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5819225266073382</v>
+        <v>0.5794004970909095</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2064,7 +2061,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5807004960123656</v>
+        <v>0.5779100307670459</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2072,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5795709891983338</v>
+        <v>0.5769400985494624</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2088,7 +2085,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5769400985494624</v>
+        <v>0.5757743060261973</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2104,7 +2101,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5721365004038357</v>
+        <v>0.5731607327880779</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2120,7 +2117,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5718568903698258</v>
+        <v>0.5721365004038357</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2128,7 +2125,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5681310973845692</v>
+        <v>0.5718568903698258</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2136,7 +2133,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5673950000741002</v>
+        <v>0.5681310973845692</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2144,7 +2141,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5651900400467484</v>
+        <v>0.5673950000741002</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2152,7 +2149,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5646996828634547</v>
+        <v>0.5651900400467484</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2160,7 +2157,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5643257148534744</v>
+        <v>0.5646996828634547</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2168,7 +2165,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5641042411460386</v>
+        <v>0.5643257148534744</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2192,7 +2189,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5565848268784288</v>
+        <v>0.5558451819080141</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2208,7 +2205,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5446254435730697</v>
+        <v>0.5459753867333577</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2248,7 +2245,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5222645928799281</v>
+        <v>0.5262121531234754</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2312,7 +2309,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.5062912898383822</v>
+        <v>0.509369883949585</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2320,7 +2317,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.5060044993342006</v>
+        <v>0.5062912898383822</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2424,7 +2421,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.4750885815934502</v>
+        <v>0.4758280451831522</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2432,7 +2429,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.473172367527475</v>
+        <v>0.4750885815934502</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2496,7 +2493,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.449816973409833</v>
+        <v>0.449716502914645</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2504,7 +2501,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.4475219715512697</v>
+        <v>0.4476802212730808</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2512,7 +2509,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.4458906221055989</v>
+        <v>0.4475219715512697</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2520,7 +2517,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.4456943027467655</v>
+        <v>0.4458906221055989</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2528,7 +2525,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.4453028363009013</v>
+        <v>0.4456943027467655</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2632,7 +2629,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.4197496707943174</v>
+        <v>0.4168084503714113</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2640,7 +2637,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.4168084503714113</v>
+        <v>0.4161493845774786</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2648,7 +2645,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.4161493845774786</v>
+        <v>0.4150814401645482</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2680,7 +2677,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.4088658745132041</v>
+        <v>0.4099970962326616</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2712,7 +2709,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.4054770382381903</v>
+        <v>0.4006693459304982</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2720,7 +2717,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.4053941714115821</v>
+        <v>0.3999238450803273</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2728,7 +2725,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.3999238450803273</v>
+        <v>0.3980231485811783</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2768,7 +2765,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.3950183408888703</v>
+        <v>0.3933908469235792</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2776,7 +2773,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.3933908469235792</v>
+        <v>0.3933483225173673</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2784,7 +2781,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.3933483225173673</v>
+        <v>0.3924769921405686</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2800,7 +2797,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.3924769921405686</v>
+        <v>0.3922689200770242</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2808,7 +2805,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.3922689200770242</v>
+        <v>0.3919275415911181</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2872,7 +2869,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.3919275415911181</v>
+        <v>0.3909738289972666</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2880,7 +2877,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.3909738289972666</v>
+        <v>0.3898070541806939</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2888,7 +2885,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.3898070541806939</v>
+        <v>0.3881594563403286</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2968,7 +2965,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.3799939418953424</v>
+        <v>0.3800099803715375</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2976,7 +2973,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.3785011046318925</v>
+        <v>0.3799939418953424</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3048,7 +3045,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.357899040534257</v>
+        <v>0.3569048618686872</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3056,7 +3053,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3569048618686872</v>
+        <v>0.3520327769177722</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3064,7 +3061,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.3520327769177722</v>
+        <v>0.3498487574839739</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3320,7 +3317,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.2995752703542154</v>
+        <v>0.3060389455678907</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3336,7 +3333,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.2983720424388185</v>
+        <v>0.2989319691189869</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3344,7 +3341,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.2954327614048107</v>
+        <v>0.2983720424388185</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3352,7 +3349,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.2921586034639285</v>
+        <v>0.2954327614048107</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3360,7 +3357,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.2917451188886946</v>
+        <v>0.2946530585274036</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3368,7 +3365,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.2915880576336356</v>
+        <v>0.2921586034639285</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3376,7 +3373,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.2884291082983323</v>
+        <v>0.2915880576336356</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3392,7 +3389,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.2856443891686953</v>
+        <v>0.2884291082983323</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3400,7 +3397,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.2850976029274783</v>
+        <v>0.2856443891686953</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3432,7 +3429,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2846352647084065</v>
+        <v>0.2850976029274783</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3456,7 +3453,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2769397832935021</v>
+        <v>0.2735649397503235</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3464,7 +3461,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2735649397503235</v>
+        <v>0.2717079142810559</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3472,7 +3469,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2693275874934611</v>
+        <v>0.2652791899427664</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3480,7 +3477,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.267106236652765</v>
+        <v>0.2650257148354012</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3488,7 +3485,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2652791899427664</v>
+        <v>0.2637635561142124</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3632,7 +3629,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2564642903591627</v>
+        <v>0.2564387062895037</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3648,7 +3645,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2564387062895037</v>
+        <v>0.2508127028503202</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3656,7 +3653,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2508127028503202</v>
+        <v>0.2496354166185242</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3664,7 +3661,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2503775163990851</v>
+        <v>0.2460614501035239</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3672,7 +3669,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2460614501035239</v>
+        <v>0.245419338783353</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3680,7 +3677,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.245419338783353</v>
+        <v>0.2449812676873291</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3688,7 +3685,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2444349390160003</v>
+        <v>0.2435436887903073</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3696,7 +3693,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2435436887903073</v>
+        <v>0.2423961215456463</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3704,7 +3701,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2425759314214337</v>
+        <v>0.2406806160771851</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3712,7 +3709,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2423961215456463</v>
+        <v>0.2398546645897146</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3720,7 +3717,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2398546645897146</v>
+        <v>0.2375240412632289</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3736,7 +3733,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2375240412632289</v>
+        <v>0.2374986426313217</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3744,7 +3741,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2374986426313217</v>
+        <v>0.237321103967524</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3752,7 +3749,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.237321103967524</v>
+        <v>0.2283110275283158</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3912,7 +3909,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.1600326100465113</v>
+        <v>0.1494699675556057</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3920,7 +3917,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1512745813444047</v>
+        <v>0.1472384341615891</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3928,7 +3925,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1494699675556057</v>
+        <v>0.146838165602067</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3936,7 +3933,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1472384341615891</v>
+        <v>0.146564614366977</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3944,7 +3941,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.146564614366977</v>
+        <v>0.143862619474211</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3952,7 +3949,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.143862619474211</v>
+        <v>0.1413802766461001</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3960,7 +3957,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1386432507803907</v>
+        <v>0.1298453717568979</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3968,7 +3965,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1262996851630875</v>
+        <v>0.1265742587228502</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3976,7 +3973,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1219700169466635</v>
+        <v>0.1262996851630875</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3984,7 +3981,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1139983715348978</v>
+        <v>0.1219700169466635</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4040,7 +4037,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.07840916042262092</v>
+        <v>0.07993142496017991</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4072,7 +4069,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.0653289684633771</v>
+        <v>0.06399550616295446</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4080,7 +4077,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.06399550616295446</v>
+        <v>0.05085949921766764</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4088,7 +4085,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.05159928252063883</v>
+        <v>0.05027227137654067</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4096,7 +4093,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.05085949921766764</v>
+        <v>0.05014328808446433</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4104,7 +4101,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.05027227137654067</v>
+        <v>0.04272663543094213</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4112,7 +4109,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.05014328808446433</v>
+        <v>0.03767730536802194</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4120,7 +4117,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.04773885431348246</v>
+        <v>0.03374622469772381</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4128,7 +4125,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.03767730536802194</v>
+        <v>0.01899572472164612</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4488,7 +4485,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.0005923205909219575</v>
+        <v>3.33066907387547e-16</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4496,14 +4493,6 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>3.33066907387547e-16</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B376">
         <v>3.33066907387547e-16</v>
       </c>
     </row>
